--- a/forecast_summary_B08F7BHDLY.xlsx
+++ b/forecast_summary_B08F7BHDLY.xlsx
@@ -488,7 +488,7 @@
         <v>160.1393199104967</v>
       </c>
       <c r="D2" t="n">
-        <v>221.2861964294511</v>
+        <v>221.0849778471946</v>
       </c>
       <c r="E2" t="n">
         <v>146</v>
@@ -518,13 +518,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" t="n">
         <v>140.7101126442642</v>
       </c>
       <c r="D3" t="n">
-        <v>203.9263651953787</v>
+        <v>201.7484654015377</v>
       </c>
       <c r="E3" t="n">
         <v>98</v>
@@ -554,13 +554,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" t="n">
         <v>134.305057165544</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9184621413842</v>
+        <v>195.5400274973452</v>
       </c>
       <c r="E4" t="n">
         <v>90</v>
@@ -590,13 +590,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5" t="n">
         <v>137.1143504031909</v>
       </c>
       <c r="D5" t="n">
-        <v>196.0693780496692</v>
+        <v>199.8839534004867</v>
       </c>
       <c r="E5" t="n">
         <v>107</v>
@@ -626,13 +626,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C6" t="n">
         <v>136.0710800611095</v>
       </c>
       <c r="D6" t="n">
-        <v>195.6479329656704</v>
+        <v>201.3808662571929</v>
       </c>
       <c r="E6" t="n">
         <v>87</v>
@@ -662,13 +662,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" t="n">
         <v>127.2728176039879</v>
       </c>
       <c r="D7" t="n">
-        <v>191.8930890981957</v>
+        <v>185.1395569624067</v>
       </c>
       <c r="E7" t="n">
         <v>81</v>
@@ -704,7 +704,7 @@
         <v>118.8715555085086</v>
       </c>
       <c r="D8" t="n">
-        <v>182.5715966257648</v>
+        <v>181.6949562513354</v>
       </c>
       <c r="E8" t="n">
         <v>82</v>
@@ -740,7 +740,7 @@
         <v>117.09426260854</v>
       </c>
       <c r="D9" t="n">
-        <v>179.7323953914248</v>
+        <v>179.616336125509</v>
       </c>
       <c r="E9" t="n">
         <v>80</v>
@@ -770,13 +770,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" t="n">
         <v>116.1682451285496</v>
       </c>
       <c r="D10" t="n">
-        <v>177.783185057803</v>
+        <v>175.7337833657078</v>
       </c>
       <c r="E10" t="n">
         <v>79</v>
@@ -812,7 +812,7 @@
         <v>106.8112368444398</v>
       </c>
       <c r="D11" t="n">
-        <v>168.0504804117747</v>
+        <v>167.4459777250811</v>
       </c>
       <c r="E11" t="n">
         <v>82</v>
@@ -842,13 +842,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" t="n">
         <v>92.0746914114978</v>
       </c>
       <c r="D12" t="n">
-        <v>155.5529428207891</v>
+        <v>152.3396702761764</v>
       </c>
       <c r="E12" t="n">
         <v>89</v>
@@ -878,13 +878,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" t="n">
         <v>87.8319741674655</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9217107908434</v>
+        <v>153.6437735335704</v>
       </c>
       <c r="E13" t="n">
         <v>88</v>
@@ -914,13 +914,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" t="n">
         <v>104.0665901788299</v>
       </c>
       <c r="D14" t="n">
-        <v>164.3183949962696</v>
+        <v>165.7719481597741</v>
       </c>
       <c r="E14" t="n">
         <v>83</v>
@@ -950,13 +950,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" t="n">
         <v>129.0963392672726</v>
       </c>
       <c r="D15" t="n">
-        <v>190.2767027514267</v>
+        <v>190.8652103296676</v>
       </c>
       <c r="E15" t="n">
         <v>80</v>
@@ -986,13 +986,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" t="n">
         <v>138.2451720905276</v>
       </c>
       <c r="D16" t="n">
-        <v>202.8766063644528</v>
+        <v>200.4464218693634</v>
       </c>
       <c r="E16" t="n">
         <v>82</v>
@@ -1022,13 +1022,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" t="n">
         <v>119.9330063967863</v>
       </c>
       <c r="D17" t="n">
-        <v>182.110049628758</v>
+        <v>185.9286942386037</v>
       </c>
       <c r="E17" t="n">
         <v>81</v>
@@ -1064,7 +1064,7 @@
         <v>89.81249305448448</v>
       </c>
       <c r="D18" t="n">
-        <v>153.9503301893685</v>
+        <v>155.2100107058579</v>
       </c>
       <c r="E18" t="n">
         <v>76</v>
@@ -1094,13 +1094,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" t="n">
         <v>75.53401683205507</v>
       </c>
       <c r="D19" t="n">
-        <v>135.4445690493043</v>
+        <v>133.6299565829612</v>
       </c>
       <c r="E19" t="n">
         <v>73</v>
@@ -1130,13 +1130,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C20" t="n">
         <v>88.04697620922246</v>
       </c>
       <c r="D20" t="n">
-        <v>149.4079188499079</v>
+        <v>154.4480246787629</v>
       </c>
       <c r="E20" t="n">
         <v>81</v>
@@ -1172,7 +1172,7 @@
         <v>110.9702056577835</v>
       </c>
       <c r="D21" t="n">
-        <v>177.036367668138</v>
+        <v>176.4309099129671</v>
       </c>
       <c r="E21" t="n">
         <v>72</v>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>1221</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>646</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>93</t>
         </is>
       </c>
     </row>

--- a/forecast_summary_B08F7BHDLY.xlsx
+++ b/forecast_summary_B08F7BHDLY.xlsx
@@ -482,13 +482,13 @@
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C2" t="n">
-        <v>160.1393199104967</v>
+        <v>159.0579063769659</v>
       </c>
       <c r="D2" t="n">
-        <v>221.0849778471946</v>
+        <v>219.7251383275931</v>
       </c>
       <c r="E2" t="n">
         <v>146</v>
@@ -518,13 +518,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C3" t="n">
-        <v>140.7101126442642</v>
+        <v>139.6528418789017</v>
       </c>
       <c r="D3" t="n">
-        <v>201.7484654015377</v>
+        <v>201.713711752245</v>
       </c>
       <c r="E3" t="n">
         <v>98</v>
@@ -554,13 +554,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C4" t="n">
-        <v>134.305057165544</v>
+        <v>131.965918950232</v>
       </c>
       <c r="D4" t="n">
-        <v>195.5400274973452</v>
+        <v>192.3466005740052</v>
       </c>
       <c r="E4" t="n">
         <v>90</v>
@@ -590,13 +590,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C5" t="n">
-        <v>137.1143504031909</v>
+        <v>133.0876979309015</v>
       </c>
       <c r="D5" t="n">
-        <v>199.8839534004867</v>
+        <v>196.2527394837394</v>
       </c>
       <c r="E5" t="n">
         <v>107</v>
@@ -626,13 +626,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C6" t="n">
-        <v>136.0710800611095</v>
+        <v>131.4755148449333</v>
       </c>
       <c r="D6" t="n">
-        <v>201.3808662571929</v>
+        <v>194.1706464143203</v>
       </c>
       <c r="E6" t="n">
         <v>87</v>
@@ -662,13 +662,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C7" t="n">
-        <v>127.2728176039879</v>
+        <v>123.7535066356939</v>
       </c>
       <c r="D7" t="n">
-        <v>185.1395569624067</v>
+        <v>190.0772104741484</v>
       </c>
       <c r="E7" t="n">
         <v>81</v>
@@ -698,13 +698,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C8" t="n">
-        <v>118.8715555085086</v>
+        <v>117.0614502306418</v>
       </c>
       <c r="D8" t="n">
-        <v>181.6949562513354</v>
+        <v>179.4613031286135</v>
       </c>
       <c r="E8" t="n">
         <v>82</v>
@@ -734,13 +734,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C9" t="n">
-        <v>117.09426260854</v>
+        <v>116.1879658439726</v>
       </c>
       <c r="D9" t="n">
-        <v>179.616336125509</v>
+        <v>175.852941400767</v>
       </c>
       <c r="E9" t="n">
         <v>80</v>
@@ -770,13 +770,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C10" t="n">
-        <v>116.1682451285496</v>
+        <v>114.9559418113139</v>
       </c>
       <c r="D10" t="n">
-        <v>175.7337833657078</v>
+        <v>173.6228085021944</v>
       </c>
       <c r="E10" t="n">
         <v>79</v>
@@ -806,13 +806,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C11" t="n">
-        <v>106.8112368444398</v>
+        <v>104.9085532897964</v>
       </c>
       <c r="D11" t="n">
-        <v>167.4459777250811</v>
+        <v>167.9251447882201</v>
       </c>
       <c r="E11" t="n">
         <v>82</v>
@@ -842,13 +842,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C12" t="n">
-        <v>92.0746914114978</v>
+        <v>90.02457290243973</v>
       </c>
       <c r="D12" t="n">
-        <v>152.3396702761764</v>
+        <v>153.8561052807109</v>
       </c>
       <c r="E12" t="n">
         <v>89</v>
@@ -878,13 +878,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C13" t="n">
-        <v>87.8319741674655</v>
+        <v>86.19031374014077</v>
       </c>
       <c r="D13" t="n">
-        <v>153.6437735335704</v>
+        <v>145.1285654053279</v>
       </c>
       <c r="E13" t="n">
         <v>88</v>
@@ -914,13 +914,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C14" t="n">
-        <v>104.0665901788299</v>
+        <v>102.7188618522469</v>
       </c>
       <c r="D14" t="n">
-        <v>165.7719481597741</v>
+        <v>165.5335401521822</v>
       </c>
       <c r="E14" t="n">
         <v>83</v>
@@ -950,13 +950,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C15" t="n">
-        <v>129.0963392672726</v>
+        <v>127.5895939199529</v>
       </c>
       <c r="D15" t="n">
-        <v>190.8652103296676</v>
+        <v>193.6218809483319</v>
       </c>
       <c r="E15" t="n">
         <v>80</v>
@@ -986,13 +986,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C16" t="n">
-        <v>138.2451720905276</v>
+        <v>136.5687735724096</v>
       </c>
       <c r="D16" t="n">
-        <v>200.4464218693634</v>
+        <v>204.9387132200902</v>
       </c>
       <c r="E16" t="n">
         <v>82</v>
@@ -1022,13 +1022,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C17" t="n">
-        <v>119.9330063967863</v>
+        <v>118.6637825999316</v>
       </c>
       <c r="D17" t="n">
-        <v>185.9286942386037</v>
+        <v>182.7033783510813</v>
       </c>
       <c r="E17" t="n">
         <v>81</v>
@@ -1058,13 +1058,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C18" t="n">
-        <v>89.81249305448448</v>
+        <v>89.4294120177901</v>
       </c>
       <c r="D18" t="n">
-        <v>155.2100107058579</v>
+        <v>156.6148410223776</v>
       </c>
       <c r="E18" t="n">
         <v>76</v>
@@ -1094,13 +1094,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C19" t="n">
-        <v>75.53401683205507</v>
+        <v>75.80333112620949</v>
       </c>
       <c r="D19" t="n">
-        <v>133.6299565829612</v>
+        <v>136.765133360131</v>
       </c>
       <c r="E19" t="n">
         <v>73</v>
@@ -1130,13 +1130,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C20" t="n">
-        <v>88.04697620922246</v>
+        <v>88.29075000254248</v>
       </c>
       <c r="D20" t="n">
-        <v>154.4480246787629</v>
+        <v>148.1024288435489</v>
       </c>
       <c r="E20" t="n">
         <v>81</v>
@@ -1166,13 +1166,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C21" t="n">
-        <v>110.9702056577835</v>
+        <v>110.9104952959933</v>
       </c>
       <c r="D21" t="n">
-        <v>176.4309099129671</v>
+        <v>178.2889784981425</v>
       </c>
       <c r="E21" t="n">
         <v>72</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2266</t>
+          <t>2032</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>1101</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>588</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>165</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>82</t>
         </is>
       </c>
     </row>
